--- a/dws-BOM.xlsx
+++ b/dws-BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t xml:space="preserve">Qty</t>
   </si>
@@ -82,10 +82,13 @@
     <t xml:space="preserve">SCALE1</t>
   </si>
   <si>
+    <t xml:space="preserve">B10k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLOPE1</t>
+  </si>
+  <si>
     <t xml:space="preserve">B100k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLOPE1</t>
   </si>
   <si>
     <t xml:space="preserve">Q1, Q2</t>
@@ -181,6 +184,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -202,6 +206,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -279,14 +284,14 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.12"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -408,7 +413,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -416,10 +421,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -427,10 +432,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -438,10 +443,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -449,10 +454,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -460,10 +465,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -471,10 +476,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -482,10 +487,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -493,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -504,10 +509,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -515,10 +520,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -526,10 +531,10 @@
         <v>2</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -537,10 +542,10 @@
         <v>8</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -548,10 +553,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -559,10 +564,10 @@
         <v>1</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/dws-BOM.xlsx
+++ b/dws-BOM.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="dws-BOM" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="dws" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,145 +22,142 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
-    <t xml:space="preserve">Qty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1, C2, C4, C6</t>
+    <t xml:space="preserve">Reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1 C2 C4 C6 </t>
   </si>
   <si>
     <t xml:space="preserve">100n</t>
   </si>
   <si>
-    <t xml:space="preserve">C3, C5</t>
+    <t xml:space="preserve">C3 C5 </t>
   </si>
   <si>
     <t xml:space="preserve">10u</t>
   </si>
   <si>
-    <t xml:space="preserve">D1, D2, D3, D4, D5, D6, D7, D8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD101C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D10, D11, D13, D14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1N4148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN1, OUT1</t>
+    <t xml:space="preserve">D1 D2 D3 D4 D5 D6 D7 D8 D10 D11 D13 D14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For best results, D1-D8 should be Schottky diodes. 1N4148s for all the others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INPUT_LED1 OUTPUT_LED1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EURO_PWR_2x5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUT1 IN1 </t>
   </si>
   <si>
     <t xml:space="preserve">PJ301M-12</t>
   </si>
   <si>
-    <t xml:space="preserve">INPUT_LED1, OUTPUT_LED1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EURO_PWR_2x5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OUTPUT_GAIN1, SCALE1</t>
+    <t xml:space="preserve">OUTPUT_GAIN1</t>
   </si>
   <si>
     <t xml:space="preserve">A100k</t>
   </si>
   <si>
-    <t xml:space="preserve">SCALE1</t>
+    <t xml:space="preserve">SLOPE1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B100k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1 Q2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2N3906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">200k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4 R14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4k7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R16 R23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">220R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">33k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2k2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R21 R24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3 R5 R15 R22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">100k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6 R7 R8 R9 R10 R11 R12 R13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RV1 RV2 RV3 RV4 RV5 RV6 RV7 RV8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audio or linear taper – audio preferred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCALE1 </t>
   </si>
   <si>
     <t xml:space="preserve">B10k</t>
   </si>
   <si>
-    <t xml:space="preserve">SLOPE1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B100k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1, Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2N3906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R3, R5, R15, R22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R4, R14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4k7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R6, R7, R8, R9, R10, R11, R12, R13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R16, R12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">220R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2k2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R21, R24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RV1, RV2, RV3, RV4, RV5, RV6, RV7, RV8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U1</t>
+    <t xml:space="preserve">U1 </t>
   </si>
   <si>
     <t xml:space="preserve">TL074</t>
@@ -169,7 +166,10 @@
     <t xml:space="preserve">R20</t>
   </si>
   <si>
-    <t xml:space="preserve">1k or 100nF film cap</t>
+    <t xml:space="preserve">1k OR 100nF film cap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Capacitor recommended to remove any DC offset in the output)</t>
   </si>
 </sst>
 </file>
@@ -184,7 +184,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -206,7 +205,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -256,12 +254,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -277,296 +275,291 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.12"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="64.09"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="n">
         <v>4</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>3</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="A3" s="0" t="s">
         <v>5</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="A5" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="A6" s="0" t="s">
         <v>11</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" s="0" t="s">
+      <c r="A7" s="0" t="s">
         <v>13</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="0" t="s">
+      <c r="A8" s="0" t="s">
         <v>15</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="0" t="s">
+      <c r="A9" s="0" t="s">
         <v>17</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="0" t="s">
+      <c r="A10" s="0" t="s">
         <v>19</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" s="0" t="s">
+      <c r="A11" s="0" t="s">
         <v>21</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" s="0" t="s">
+      <c r="A12" s="0" t="s">
         <v>23</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="0" t="s">
+      <c r="A13" s="0" t="s">
         <v>25</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="0" t="s">
+      <c r="A14" s="0" t="s">
         <v>27</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" s="0" t="s">
+      <c r="A15" s="0" t="s">
         <v>29</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B16" s="0" t="s">
+      <c r="A16" s="0" t="s">
         <v>31</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B17" s="0" t="s">
+      <c r="A17" s="0" t="s">
         <v>33</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B18" s="0" t="s">
+      <c r="A18" s="0" t="s">
         <v>35</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="0" t="s">
+      <c r="A19" s="0" t="s">
         <v>37</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="0" t="s">
+      <c r="A20" s="0" t="s">
         <v>39</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>8</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="0" t="s">
+      <c r="A21" s="0" t="s">
         <v>41</v>
       </c>
+      <c r="B21" s="2" t="n">
+        <v>8</v>
+      </c>
       <c r="C21" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="0" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B22" s="0" t="s">
+      <c r="A22" s="0" t="s">
         <v>43</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B23" s="0" t="s">
+      <c r="A23" s="0" t="s">
         <v>45</v>
       </c>
+      <c r="B23" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="C23" s="0" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>46</v>
+      <c r="A24" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B25" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="D24" s="0" t="s">
         <v>49</v>
       </c>
     </row>
